--- a/Annotations/Old/HuckleberryFinn.xlsx
+++ b/Annotations/Old/HuckleberryFinn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="12372" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1956" windowHeight="12372"/>
   </bookViews>
   <sheets>
     <sheet name="huckleberry" sheetId="1" r:id="rId1"/>
@@ -1583,14 +1583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P215"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.6640625" style="2" customWidth="1"/>
@@ -1652,7 +1653,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.80748001824065596</v>
+        <v>0.56946721674521394</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
@@ -1679,7 +1680,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6853834906748251E-3</v>
+        <v>0.98984161729545928</v>
       </c>
       <c r="B3" s="2">
         <v>78</v>
@@ -1703,7 +1704,7 @@
     <row r="4" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55253624090119602</v>
+        <v>7.0711986848830066E-2</v>
       </c>
       <c r="B4" s="2">
         <v>123</v>
@@ -1730,7 +1731,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32608489417980435</v>
+        <v>0.12415508668002784</v>
       </c>
       <c r="B5" s="2">
         <v>151</v>
@@ -1754,7 +1755,7 @@
     <row r="6" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29206193792873358</v>
+        <v>0.3419654997021464</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
@@ -1775,7 +1776,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71947278132406256</v>
+        <v>0.11033203614221809</v>
       </c>
       <c r="B7" s="2">
         <v>193</v>
@@ -1796,7 +1797,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22457036611404424</v>
+        <v>0.64254756283773196</v>
       </c>
       <c r="B8" s="2">
         <v>13</v>
@@ -1823,7 +1824,7 @@
     <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31358014840416515</v>
+        <v>0.45882339653716131</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
@@ -1850,7 +1851,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2465415357830976E-2</v>
+        <v>0.68193034606320424</v>
       </c>
       <c r="B10" s="2">
         <v>196</v>
@@ -1871,7 +1872,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43107076356804963</v>
+        <v>0.6372511420743433</v>
       </c>
       <c r="B11" s="2">
         <v>61</v>
@@ -1895,7 +1896,7 @@
     <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3047882937449804</v>
+        <v>0.78327571796886608</v>
       </c>
       <c r="B12" s="2">
         <v>209</v>
@@ -1919,7 +1920,7 @@
     <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54330020353327413</v>
+        <v>0.44145875409816182</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
@@ -1949,7 +1950,7 @@
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9247310300404403E-2</v>
+        <v>0.66039964302086496</v>
       </c>
       <c r="B14" s="2">
         <v>105</v>
@@ -1976,7 +1977,7 @@
     <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4548371166261229E-2</v>
+        <v>0.80606034584998854</v>
       </c>
       <c r="B15" s="2">
         <v>38</v>
@@ -2003,7 +2004,7 @@
     <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58098761959773537</v>
+        <v>0.64646461084729834</v>
       </c>
       <c r="B16" s="2">
         <v>84</v>
@@ -2030,7 +2031,7 @@
     <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2025793521923527E-2</v>
+        <v>3.2536038252980237E-2</v>
       </c>
       <c r="B17" s="2">
         <v>206</v>
@@ -2051,7 +2052,7 @@
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12244514419889041</v>
+        <v>0.47379400185901488</v>
       </c>
       <c r="B18" s="2">
         <v>179</v>
@@ -2072,7 +2073,7 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48604920192413315</v>
+        <v>0.72992757704448363</v>
       </c>
       <c r="B19" s="2">
         <v>43</v>
@@ -2096,7 +2097,7 @@
     <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6630682607563857</v>
+        <v>0.35409651454021629</v>
       </c>
       <c r="B20" s="2">
         <v>169</v>
@@ -2117,7 +2118,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56681125062158977</v>
+        <v>0.8485246243924045</v>
       </c>
       <c r="B21" s="2">
         <v>71</v>
@@ -2138,7 +2139,7 @@
     <row r="22" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88661840203345066</v>
+        <v>0.70518125093387241</v>
       </c>
       <c r="B22" s="2">
         <v>50</v>
@@ -2162,7 +2163,7 @@
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5727802784457205E-2</v>
+        <v>0.5232039813201923</v>
       </c>
       <c r="B23" s="2">
         <v>195</v>
@@ -2186,7 +2187,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66525022883050511</v>
+        <v>0.55030061577141787</v>
       </c>
       <c r="B24" s="2">
         <v>63</v>
@@ -2210,7 +2211,7 @@
     <row r="25" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56896638245912645</v>
+        <v>0.84616808073267913</v>
       </c>
       <c r="B25" s="2">
         <v>51</v>
@@ -2234,7 +2235,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43292472884273614</v>
+        <v>0.35655264787811269</v>
       </c>
       <c r="B26" s="2">
         <v>156</v>
@@ -2255,7 +2256,7 @@
     <row r="27" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87029413014419155</v>
+        <v>6.4126610637121106E-2</v>
       </c>
       <c r="B27" s="2">
         <v>18</v>
@@ -2276,7 +2277,7 @@
     <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6509229691505993E-2</v>
+        <v>0.27521177603364422</v>
       </c>
       <c r="B28" s="2">
         <v>16</v>
@@ -2303,7 +2304,7 @@
     <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73145182809609155</v>
+        <v>0.54012434870671699</v>
       </c>
       <c r="B29" s="2">
         <v>165</v>
@@ -2327,7 +2328,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22162021171795276</v>
+        <v>0.45905325696857369</v>
       </c>
       <c r="B30" s="2">
         <v>80</v>
@@ -2351,7 +2352,7 @@
     <row r="31" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19330284461185565</v>
+        <v>0.20375025180420481</v>
       </c>
       <c r="B31" s="2">
         <v>21</v>
@@ -2381,7 +2382,7 @@
     <row r="32" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22664023669408795</v>
+        <v>0.3985675012682649</v>
       </c>
       <c r="B32" s="2">
         <v>100</v>
@@ -2408,7 +2409,7 @@
     <row r="33" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1318964796571311E-2</v>
+        <v>2.2552542374212226E-2</v>
       </c>
       <c r="B33" s="2">
         <v>118</v>
@@ -2429,7 +2430,7 @@
     <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69124719360840448</v>
+        <v>0.91973644005604183</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2459,7 +2460,7 @@
     <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84076498087780027</v>
+        <v>0.44999105125151151</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -2483,7 +2484,7 @@
     <row r="36" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90634223055311602</v>
+        <v>0.60458751916066933</v>
       </c>
       <c r="B36" s="2">
         <v>115</v>
@@ -2507,7 +2508,7 @@
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7436341383536287E-2</v>
+        <v>0.87854470794773232</v>
       </c>
       <c r="B37" s="2">
         <v>200</v>
@@ -2528,7 +2529,7 @@
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4578510033236567E-2</v>
+        <v>0.58192606817603232</v>
       </c>
       <c r="B38" s="2">
         <v>68</v>
@@ -2549,7 +2550,7 @@
     <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81453905925088954</v>
+        <v>0.58438060995753316</v>
       </c>
       <c r="B39" s="2">
         <v>36</v>
@@ -2573,7 +2574,7 @@
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24795630242241717</v>
+        <v>0.48886860276019073</v>
       </c>
       <c r="B40" s="2">
         <v>86</v>
@@ -2597,7 +2598,7 @@
     <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93875999249999376</v>
+        <v>0.64268099905511145</v>
       </c>
       <c r="B41" s="2">
         <v>144</v>
@@ -2621,7 +2622,7 @@
     <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74973901072919225</v>
+        <v>0.60352621705837339</v>
       </c>
       <c r="B42" s="2">
         <v>162</v>
@@ -2642,7 +2643,7 @@
     <row r="43" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72872309580040939</v>
+        <v>0.82951264019142124</v>
       </c>
       <c r="B43" s="2">
         <v>211</v>
@@ -2666,7 +2667,7 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.385944106546531</v>
+        <v>0.1780268643055839</v>
       </c>
       <c r="B44" s="2">
         <v>65</v>
@@ -2687,7 +2688,7 @@
     <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86512221817783164</v>
+        <v>0.85225273061551177</v>
       </c>
       <c r="B45" s="2">
         <v>45</v>
@@ -2714,7 +2715,7 @@
     <row r="46" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55895497467778998</v>
+        <v>0.64407906775309942</v>
       </c>
       <c r="B46" s="2">
         <v>74</v>
@@ -2735,7 +2736,7 @@
     <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61286665539237495</v>
+        <v>3.3913015516644496E-3</v>
       </c>
       <c r="B47" s="2">
         <v>99</v>
@@ -2762,7 +2763,7 @@
     <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2247893271803324</v>
+        <v>0.47042745686693122</v>
       </c>
       <c r="B48" s="2">
         <v>88</v>
@@ -2792,7 +2793,7 @@
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28997607681620119</v>
+        <v>0.72620364428844497</v>
       </c>
       <c r="B49" s="2">
         <v>173</v>
@@ -2819,7 +2820,7 @@
     <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67475814141317159</v>
+        <v>0.37326486827849226</v>
       </c>
       <c r="B50" s="2">
         <v>109</v>
@@ -2843,7 +2844,7 @@
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46195461046732511</v>
+        <v>0.98563022734467276</v>
       </c>
       <c r="B51" s="2">
         <v>194</v>
@@ -2867,7 +2868,7 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6177694089633143E-2</v>
+        <v>0.96947846663310822</v>
       </c>
       <c r="B52" s="2">
         <v>92</v>
@@ -2891,7 +2892,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27962261796897891</v>
+        <v>0.13089866616839807</v>
       </c>
       <c r="B53" s="2">
         <v>158</v>
@@ -2912,7 +2913,7 @@
     <row r="54" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35769021994244243</v>
+        <v>0.87724979779329693</v>
       </c>
       <c r="B54" s="2">
         <v>134</v>
@@ -2933,7 +2934,7 @@
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89504321987912505</v>
+        <v>0.44830902895753277</v>
       </c>
       <c r="B55" s="2">
         <v>129</v>
@@ -2954,7 +2955,7 @@
     <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68636181306581168</v>
+        <v>0.76472242403474189</v>
       </c>
       <c r="B56" s="2">
         <v>25</v>
@@ -2975,7 +2976,7 @@
     <row r="57" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61094219346579859</v>
+        <v>8.9605342295271617E-2</v>
       </c>
       <c r="B57" s="2">
         <v>108</v>
@@ -2999,7 +3000,7 @@
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2680027844764723</v>
+        <v>0.80275401917284783</v>
       </c>
       <c r="B58" s="2">
         <v>44</v>
@@ -3029,7 +3030,7 @@
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16017195234580117</v>
+        <v>0.81619239782379349</v>
       </c>
       <c r="B59" s="2">
         <v>23</v>
@@ -3053,7 +3054,7 @@
     <row r="60" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75148476047089807</v>
+        <v>0.77047551939253567</v>
       </c>
       <c r="B60" s="2">
         <v>113</v>
@@ -3077,7 +3078,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11793275748613608</v>
+        <v>0.72405462324069692</v>
       </c>
       <c r="B61" s="2">
         <v>87</v>
@@ -3101,7 +3102,7 @@
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94635472282701028</v>
+        <v>9.6342329454297437E-2</v>
       </c>
       <c r="B62" s="2">
         <v>35</v>
@@ -3128,7 +3129,7 @@
     <row r="63" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62624109240549797</v>
+        <v>0.22319293726835854</v>
       </c>
       <c r="B63" s="2">
         <v>107</v>
@@ -3158,7 +3159,7 @@
     <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14950784378851234</v>
+        <v>0.16633545029642272</v>
       </c>
       <c r="B64" s="2">
         <v>205</v>
@@ -3182,7 +3183,7 @@
     <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35299080875486055</v>
+        <v>0.66297123852232465</v>
       </c>
       <c r="B65" s="2">
         <v>75</v>
@@ -3209,7 +3210,7 @@
     <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.35545722970570159</v>
+        <v>0.76235838881736939</v>
       </c>
       <c r="B66" s="2">
         <v>95</v>
@@ -3233,7 +3234,7 @@
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9886017447406146E-2</v>
+        <v>0.59132033907028714</v>
       </c>
       <c r="B67" s="2">
         <v>64</v>
@@ -3254,7 +3255,7 @@
     <row r="68" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82766765716841895</v>
+        <v>0.78567507094831635</v>
       </c>
       <c r="B68" s="2">
         <v>164</v>
@@ -3275,7 +3276,7 @@
     <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24820467668960156</v>
+        <v>0.13792846751428089</v>
       </c>
       <c r="B69" s="2">
         <v>24</v>
@@ -3302,7 +3303,7 @@
     <row r="70" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16524774740455184</v>
+        <v>7.9976547032959866E-2</v>
       </c>
       <c r="B70" s="2">
         <v>32</v>
@@ -3326,7 +3327,7 @@
     <row r="71" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53801198954430951</v>
+        <v>0.10674833597578715</v>
       </c>
       <c r="B71" s="2">
         <v>37</v>
@@ -3353,7 +3354,7 @@
     <row r="72" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39526382669922722</v>
+        <v>0.33143386350188575</v>
       </c>
       <c r="B72" s="2">
         <v>6</v>
@@ -3389,7 +3390,7 @@
     <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38743952673252624</v>
+        <v>0.95689845634669679</v>
       </c>
       <c r="B73" s="2">
         <v>98</v>
@@ -3413,7 +3414,7 @@
     <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90930444725504134</v>
+        <v>0.92703842034391526</v>
       </c>
       <c r="B74" s="2">
         <v>157</v>
@@ -3437,7 +3438,7 @@
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16253928145301655</v>
+        <v>0.40860481873072918</v>
       </c>
       <c r="B75" s="2">
         <v>168</v>
@@ -3461,7 +3462,7 @@
     <row r="76" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4831875866994126E-2</v>
+        <v>0.3598610857572565</v>
       </c>
       <c r="B76" s="2">
         <v>55</v>
@@ -3485,7 +3486,7 @@
     <row r="77" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53140197906402242</v>
+        <v>0.90089872772046198</v>
       </c>
       <c r="B77" s="2">
         <v>73</v>
@@ -3509,7 +3510,7 @@
     <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76022088802385734</v>
+        <v>0.3062087896167478</v>
       </c>
       <c r="B78" s="2">
         <v>197</v>
@@ -3530,7 +3531,7 @@
     <row r="79" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2859936754294994E-2</v>
+        <v>1.2844832717700427E-2</v>
       </c>
       <c r="B79" s="2">
         <v>69</v>
@@ -3554,7 +3555,7 @@
     <row r="80" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27556672158598894</v>
+        <v>0.73744201675142862</v>
       </c>
       <c r="B80" s="2">
         <v>81</v>
@@ -3578,7 +3579,7 @@
     <row r="81" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9882377252438705E-2</v>
+        <v>0.69402490360666258</v>
       </c>
       <c r="B81" s="2">
         <v>82</v>
@@ -3602,7 +3603,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58682166733583963</v>
+        <v>0.41153368211963481</v>
       </c>
       <c r="B82" s="2">
         <v>202</v>
@@ -3623,7 +3624,7 @@
     <row r="83" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25145485908339171</v>
+        <v>0.23061168833894952</v>
       </c>
       <c r="B83" s="2">
         <v>212</v>
@@ -3650,7 +3651,7 @@
     <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30183874955271417</v>
+        <v>5.7878587152947136E-2</v>
       </c>
       <c r="B84" s="2">
         <v>142</v>
@@ -3674,7 +3675,7 @@
     <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68117373112105051</v>
+        <v>0.7772244368681519</v>
       </c>
       <c r="B85" s="2">
         <v>29</v>
@@ -3701,7 +3702,7 @@
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9078789625403858</v>
+        <v>0.17894236490273385</v>
       </c>
       <c r="B86" s="2">
         <v>170</v>
@@ -3725,7 +3726,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89377880598073256</v>
+        <v>0.82499136831833009</v>
       </c>
       <c r="B87" s="2">
         <v>85</v>
@@ -3749,7 +3750,7 @@
     <row r="88" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52834950309455453</v>
+        <v>0.18696553683378281</v>
       </c>
       <c r="B88" s="2">
         <v>121</v>
@@ -3773,7 +3774,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8304092274412963</v>
+        <v>0.3348722045215371</v>
       </c>
       <c r="B89" s="2">
         <v>159</v>
@@ -3794,7 +3795,7 @@
     <row r="90" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30835223548327717</v>
+        <v>0.40870585174457696</v>
       </c>
       <c r="B90" s="2">
         <v>52</v>
@@ -3818,7 +3819,7 @@
     <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66235962952723304</v>
+        <v>0.26094168003406759</v>
       </c>
       <c r="B91" s="2">
         <v>153</v>
@@ -3842,7 +3843,7 @@
     <row r="92" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58978547090122979</v>
+        <v>0.50470649148296776</v>
       </c>
       <c r="B92" s="2">
         <v>60</v>
@@ -3866,7 +3867,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7123162987617887</v>
+        <v>5.6020491133510153E-2</v>
       </c>
       <c r="B93" s="2">
         <v>177</v>
@@ -3890,7 +3891,7 @@
     <row r="94" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93069892838789348</v>
+        <v>0.66228878033935445</v>
       </c>
       <c r="B94" s="2">
         <v>111</v>
@@ -3914,7 +3915,7 @@
     <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92685359484896701</v>
+        <v>0.26121948847838872</v>
       </c>
       <c r="B95" s="2">
         <v>40</v>
@@ -3941,7 +3942,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83961876137460567</v>
+        <v>0.8865692348840718</v>
       </c>
       <c r="B96" s="2">
         <v>3</v>
@@ -3965,7 +3966,7 @@
     <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1515175954982304E-2</v>
+        <v>0.40447634322573367</v>
       </c>
       <c r="B97" s="2">
         <v>174</v>
@@ -3989,7 +3990,7 @@
     <row r="98" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24348271078771799</v>
+        <v>0.53326014852376014</v>
       </c>
       <c r="B98" s="2">
         <v>83</v>
@@ -4013,7 +4014,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74323312933977681</v>
+        <v>9.6044786305256147E-2</v>
       </c>
       <c r="B99" s="2">
         <v>102</v>
@@ -4040,7 +4041,7 @@
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6804445401634438E-2</v>
+        <v>0.9672836858652798</v>
       </c>
       <c r="B100" s="2">
         <v>192</v>
@@ -4064,7 +4065,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78417925408726619</v>
+        <v>0.70718060585532161</v>
       </c>
       <c r="B101" s="2">
         <v>31</v>
@@ -4088,7 +4089,7 @@
     <row r="102" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25081730547828773</v>
+        <v>0.62145902303032574</v>
       </c>
       <c r="B102" s="2">
         <v>11</v>
@@ -4115,7 +4116,7 @@
     <row r="103" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4092833082263051</v>
+        <v>0.66332574330279437</v>
       </c>
       <c r="B103" s="2">
         <v>120</v>
@@ -4139,7 +4140,7 @@
     <row r="104" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29798211580152079</v>
+        <v>0.76901067535889833</v>
       </c>
       <c r="B104" s="2">
         <v>33</v>
@@ -4166,7 +4167,7 @@
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7211691874336612E-2</v>
+        <v>1.3704573691975308E-2</v>
       </c>
       <c r="B105" s="2">
         <v>190</v>
@@ -4187,7 +4188,7 @@
     <row r="106" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90778968069833499</v>
+        <v>0.26277600359767017</v>
       </c>
       <c r="B106" s="2">
         <v>116</v>
@@ -4211,7 +4212,7 @@
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65596177002487921</v>
+        <v>0.15630316000571898</v>
       </c>
       <c r="B107" s="2">
         <v>103</v>
@@ -4235,7 +4236,7 @@
     <row r="108" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7533392346092167</v>
+        <v>0.60210523228275814</v>
       </c>
       <c r="B108" s="2">
         <v>10</v>
@@ -4259,7 +4260,7 @@
     <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92143944917006049</v>
+        <v>1.354349311626013E-2</v>
       </c>
       <c r="B109" s="2">
         <v>185</v>
@@ -4280,7 +4281,7 @@
     <row r="110" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91211637367367737</v>
+        <v>0.1213709103158418</v>
       </c>
       <c r="B110" s="2">
         <v>146</v>
@@ -4304,7 +4305,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98788858730099394</v>
+        <v>0.73922700268715635</v>
       </c>
       <c r="B111" s="2">
         <v>46</v>
@@ -4331,7 +4332,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27256737049783009</v>
+        <v>0.73183286309436846</v>
       </c>
       <c r="B112" s="2">
         <v>93</v>
@@ -4352,7 +4353,7 @@
     <row r="113" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69758550782818907</v>
+        <v>0.46713180559336753</v>
       </c>
       <c r="B113" s="2">
         <v>4</v>
@@ -4373,7 +4374,7 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55557378035313143</v>
+        <v>0.99317718844500946</v>
       </c>
       <c r="B114" s="2">
         <v>66</v>
@@ -4394,7 +4395,7 @@
     <row r="115" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77514288512416363</v>
+        <v>8.5212428212065761E-2</v>
       </c>
       <c r="B115" s="2">
         <v>210</v>
@@ -4418,7 +4419,7 @@
     <row r="116" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47069443742726746</v>
+        <v>0.10983768845715802</v>
       </c>
       <c r="B116" s="2">
         <v>57</v>
@@ -4442,7 +4443,7 @@
     <row r="117" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43531051286860634</v>
+        <v>0.30059111153579166</v>
       </c>
       <c r="B117" s="2">
         <v>147</v>
@@ -4463,7 +4464,7 @@
     <row r="118" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8992537188825827E-2</v>
+        <v>0.14433388118908774</v>
       </c>
       <c r="B118" s="2">
         <v>125</v>
@@ -4487,7 +4488,7 @@
     <row r="119" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44373834437027626</v>
+        <v>0.61608143989595787</v>
       </c>
       <c r="B119" s="2">
         <v>106</v>
@@ -4511,7 +4512,7 @@
     <row r="120" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70809540477305866</v>
+        <v>0.17964431989748919</v>
       </c>
       <c r="B120" s="2">
         <v>26</v>
@@ -4532,7 +4533,7 @@
     <row r="121" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6431726701954501</v>
+        <v>0.74783862952625868</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
@@ -4553,7 +4554,7 @@
     <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96352903421746694</v>
+        <v>0.74760917500791935</v>
       </c>
       <c r="B122" s="2">
         <v>172</v>
@@ -4574,7 +4575,7 @@
     <row r="123" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24468091792857616</v>
+        <v>0.73470007500857126</v>
       </c>
       <c r="B123" s="2">
         <v>136</v>
@@ -4595,7 +4596,7 @@
     <row r="124" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56514762551726194</v>
+        <v>0.390285120144515</v>
       </c>
       <c r="B124" s="2">
         <v>127</v>
@@ -4616,7 +4617,7 @@
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4794626074052557</v>
+        <v>0.59837643381269012</v>
       </c>
       <c r="B125" s="2">
         <v>101</v>
@@ -4646,7 +4647,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64954302458387514</v>
+        <v>0.37420189363852785</v>
       </c>
       <c r="B126" s="2">
         <v>131</v>
@@ -4667,7 +4668,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19202525913436008</v>
+        <v>0.99925423492263321</v>
       </c>
       <c r="B127" s="2">
         <v>124</v>
@@ -4688,7 +4689,7 @@
     <row r="128" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76568358098201084</v>
+        <v>0.45080366649756909</v>
       </c>
       <c r="B128" s="2">
         <v>28</v>
@@ -4712,7 +4713,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49708967457893871</v>
+        <v>0.16788463501193662</v>
       </c>
       <c r="B129" s="2">
         <v>89</v>
@@ -4739,7 +4740,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.35692004015144674</v>
+        <v>0.19429884721688007</v>
       </c>
       <c r="B130" s="2">
         <v>17</v>
@@ -4760,7 +4761,7 @@
     <row r="131" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88051370302994769</v>
+        <v>0.84525442927071415</v>
       </c>
       <c r="B131" s="2">
         <v>119</v>
@@ -4784,7 +4785,7 @@
     <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5660027522069888E-2</v>
+        <v>0.76406300129797433</v>
       </c>
       <c r="B132" s="2">
         <v>180</v>
@@ -4805,7 +4806,7 @@
     <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80138118097664979</v>
+        <v>0.46284432939640197</v>
       </c>
       <c r="B133" s="2">
         <v>70</v>
@@ -4832,7 +4833,7 @@
     <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70288217063222946</v>
+        <v>0.96313449864698386</v>
       </c>
       <c r="B134" s="2">
         <v>128</v>
@@ -4856,7 +4857,7 @@
     <row r="135" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4770667655979128E-2</v>
+        <v>0.3842851899182157</v>
       </c>
       <c r="B135" s="2">
         <v>112</v>
@@ -4880,7 +4881,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.576921927035001</v>
+        <v>0.30040263216285246</v>
       </c>
       <c r="B136" s="2">
         <v>160</v>
@@ -4901,7 +4902,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.787093470295491E-2</v>
+        <v>0.74025176494867095</v>
       </c>
       <c r="B137" s="2">
         <v>90</v>
@@ -4925,7 +4926,7 @@
     <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58503443092215546</v>
+        <v>0.56943247615552062</v>
       </c>
       <c r="B138" s="2">
         <v>189</v>
@@ -4949,7 +4950,7 @@
     <row r="139" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64680365924823258</v>
+        <v>0.2548714100835916</v>
       </c>
       <c r="B139" s="2">
         <v>14</v>
@@ -4973,7 +4974,7 @@
     <row r="140" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0865315385925842E-2</v>
+        <v>9.2334765463377932E-2</v>
       </c>
       <c r="B140" s="2">
         <v>126</v>
@@ -4994,7 +4995,7 @@
     <row r="141" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32192309369585537</v>
+        <v>0.95466428715682472</v>
       </c>
       <c r="B141" s="2">
         <v>72</v>
@@ -5015,7 +5016,7 @@
     <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71118530304333816</v>
+        <v>0.67076854682562737</v>
       </c>
       <c r="B142" s="2">
         <v>104</v>
@@ -5042,7 +5043,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1319512924617644</v>
+        <v>0.93234133810565145</v>
       </c>
       <c r="B143" s="2">
         <v>150</v>
@@ -5063,7 +5064,7 @@
     <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70981277482061156</v>
+        <v>0.51129706347100023</v>
       </c>
       <c r="B144" s="2">
         <v>41</v>
@@ -5087,7 +5088,7 @@
     <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91108136379901339</v>
+        <v>0.8629500767251167</v>
       </c>
       <c r="B145" s="2">
         <v>139</v>
@@ -5108,7 +5109,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86725688980142435</v>
+        <v>0.3886121681366913</v>
       </c>
       <c r="B146" s="2">
         <v>47</v>
@@ -5129,7 +5130,7 @@
     <row r="147" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55329229585923589</v>
+        <v>0.45883006380606273</v>
       </c>
       <c r="B147" s="2">
         <v>213</v>
@@ -5153,7 +5154,7 @@
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6210790813007957</v>
+        <v>2.4944338932955334E-2</v>
       </c>
       <c r="B148" s="2">
         <v>188</v>
@@ -5174,7 +5175,7 @@
     <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51600181577027515</v>
+        <v>0.28924313011419978</v>
       </c>
       <c r="B149" s="2">
         <v>138</v>
@@ -5198,7 +5199,7 @@
     <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3090403601991264</v>
+        <v>6.9201463346921011E-2</v>
       </c>
       <c r="B150" s="2">
         <v>161</v>
@@ -5219,7 +5220,7 @@
     <row r="151" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19282984434475836</v>
+        <v>0.96422244827021797</v>
       </c>
       <c r="B151" s="2">
         <v>137</v>
@@ -5243,7 +5244,7 @@
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67588154608420226</v>
+        <v>0.47698671485275301</v>
       </c>
       <c r="B152" s="2">
         <v>155</v>
@@ -5264,7 +5265,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58126673959452702</v>
+        <v>0.959354702078136</v>
       </c>
       <c r="B153" s="2">
         <v>171</v>
@@ -5285,7 +5286,7 @@
     <row r="154" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19492702133826934</v>
+        <v>0.64801252258502129</v>
       </c>
       <c r="B154" s="2">
         <v>12</v>
@@ -5309,7 +5310,7 @@
     <row r="155" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46530262227155661</v>
+        <v>0.95102493887400497</v>
       </c>
       <c r="B155" s="2">
         <v>176</v>
@@ -5333,7 +5334,7 @@
     <row r="156" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99098043987691131</v>
+        <v>0.91499187354293043</v>
       </c>
       <c r="B156" s="2">
         <v>149</v>
@@ -5354,7 +5355,7 @@
     <row r="157" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28827625863075079</v>
+        <v>0.22405999230840501</v>
       </c>
       <c r="B157" s="2">
         <v>62</v>
@@ -5378,7 +5379,7 @@
     <row r="158" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6584654366525271</v>
+        <v>0.98774087754124551</v>
       </c>
       <c r="B158" s="2">
         <v>22</v>
@@ -5405,7 +5406,7 @@
     <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48447081906841571</v>
+        <v>0.13835790808288539</v>
       </c>
       <c r="B159" s="2">
         <v>49</v>
@@ -5429,7 +5430,7 @@
     <row r="160" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98620888259101702</v>
+        <v>0.2367690084055577</v>
       </c>
       <c r="B160" s="2">
         <v>175</v>
@@ -5453,7 +5454,7 @@
     <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4531017224836752</v>
+        <v>0.23829971449605525</v>
       </c>
       <c r="B161" s="2">
         <v>42</v>
@@ -5477,7 +5478,7 @@
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62090801738652723</v>
+        <v>0.18379437361009487</v>
       </c>
       <c r="B162" s="2">
         <v>201</v>
@@ -5504,7 +5505,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24138369994171005</v>
+        <v>0.37284634866365107</v>
       </c>
       <c r="B163" s="2">
         <v>97</v>
@@ -5528,7 +5529,7 @@
     <row r="164" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5646848092111485E-2</v>
+        <v>0.17993503221318063</v>
       </c>
       <c r="B164" s="2">
         <v>184</v>
@@ -5552,7 +5553,7 @@
     <row r="165" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17480343797016595</v>
+        <v>0.38462214790088833</v>
       </c>
       <c r="B165" s="2">
         <v>56</v>
@@ -5576,7 +5577,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33688713712354745</v>
+        <v>0.51621486628838154</v>
       </c>
       <c r="B166" s="2">
         <v>167</v>
@@ -5597,7 +5598,7 @@
     <row r="167" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20217817467194144</v>
+        <v>0.23206289905323996</v>
       </c>
       <c r="B167" s="2">
         <v>203</v>
@@ -5618,7 +5619,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2707138653286707</v>
+        <v>0.16949388546897926</v>
       </c>
       <c r="B168" s="2">
         <v>207</v>
@@ -5642,7 +5643,7 @@
     <row r="169" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37199684541602984</v>
+        <v>0.19344600268128398</v>
       </c>
       <c r="B169" s="2">
         <v>39</v>
@@ -5666,7 +5667,7 @@
     <row r="170" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88453221017509009</v>
+        <v>0.66428355093687885</v>
       </c>
       <c r="B170" s="2">
         <v>145</v>
@@ -5690,7 +5691,7 @@
     <row r="171" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80140063502189118</v>
+        <v>0.21337014985273806</v>
       </c>
       <c r="B171" s="2">
         <v>122</v>
@@ -5717,7 +5718,7 @@
     <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14048486043792763</v>
+        <v>8.9217835085593999E-2</v>
       </c>
       <c r="B172" s="2">
         <v>183</v>
@@ -5738,7 +5739,7 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3485686131515839E-3</v>
+        <v>0.75067094498742526</v>
       </c>
       <c r="B173" s="2">
         <v>181</v>
@@ -5759,7 +5760,7 @@
     <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86747351767973835</v>
+        <v>0.5038784826581022</v>
       </c>
       <c r="B174" s="2">
         <v>77</v>
@@ -5783,7 +5784,7 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38280819558260537</v>
+        <v>0.15396860835907333</v>
       </c>
       <c r="B175" s="2">
         <v>199</v>
@@ -5807,7 +5808,7 @@
     <row r="176" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2894508991999767E-2</v>
+        <v>0.29885399508103394</v>
       </c>
       <c r="B176" s="2">
         <v>19</v>
@@ -5834,7 +5835,7 @@
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7373384786271067E-2</v>
+        <v>0.90462271785255288</v>
       </c>
       <c r="B177" s="2">
         <v>132</v>
@@ -5855,7 +5856,7 @@
     <row r="178" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.257038885523003E-2</v>
+        <v>0.51477232690083985</v>
       </c>
       <c r="B178" s="2">
         <v>178</v>
@@ -5879,7 +5880,7 @@
     <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22457620010732704</v>
+        <v>0.24979561545520812</v>
       </c>
       <c r="B179" s="2">
         <v>186</v>
@@ -5900,7 +5901,7 @@
     <row r="180" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56780522995917349</v>
+        <v>0.51851323464889487</v>
       </c>
       <c r="B180" s="2">
         <v>141</v>
@@ -5930,7 +5931,7 @@
     <row r="181" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64524380614112087</v>
+        <v>0.99321347772971114</v>
       </c>
       <c r="B181" s="2">
         <v>135</v>
@@ -5954,7 +5955,7 @@
     <row r="182" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24994904477431024</v>
+        <v>0.57474913730749999</v>
       </c>
       <c r="B182" s="2">
         <v>204</v>
@@ -5978,7 +5979,7 @@
     <row r="183" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62153843259727126</v>
+        <v>0.3862934663899702</v>
       </c>
       <c r="B183" s="2">
         <v>58</v>
@@ -6005,7 +6006,7 @@
     <row r="184" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42378512220392894</v>
+        <v>0.22498271737865894</v>
       </c>
       <c r="B184" s="2">
         <v>96</v>
@@ -6026,7 +6027,7 @@
     <row r="185" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66835337071532197</v>
+        <v>0.83697696457998028</v>
       </c>
       <c r="B185" s="2">
         <v>54</v>
@@ -6050,7 +6051,7 @@
     <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60536695717403621</v>
+        <v>0.44521918992204423</v>
       </c>
       <c r="B186" s="2">
         <v>214</v>
@@ -6074,7 +6075,7 @@
     <row r="187" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29306026515668993</v>
+        <v>0.46548441074741609</v>
       </c>
       <c r="B187" s="2">
         <v>48</v>
@@ -6098,7 +6099,7 @@
     <row r="188" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63905497731508354</v>
+        <v>0.16161940613389136</v>
       </c>
       <c r="B188" s="2">
         <v>133</v>
@@ -6122,7 +6123,7 @@
     <row r="189" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96882950478939056</v>
+        <v>0.36753865755099824</v>
       </c>
       <c r="B189" s="2">
         <v>34</v>
@@ -6149,7 +6150,7 @@
     <row r="190" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80942197992804321</v>
+        <v>0.95514221371616392</v>
       </c>
       <c r="B190" s="2">
         <v>182</v>
@@ -6173,7 +6174,7 @@
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5627715513346638E-3</v>
+        <v>0.65124764141858638</v>
       </c>
       <c r="B191" s="2">
         <v>94</v>
@@ -6197,7 +6198,7 @@
     <row r="192" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56123935523454693</v>
+        <v>0.98772179306713181</v>
       </c>
       <c r="B192" s="2">
         <v>198</v>
@@ -6218,7 +6219,7 @@
     <row r="193" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92949471441367426</v>
+        <v>0.9802005136918005</v>
       </c>
       <c r="B193" s="2">
         <v>76</v>
@@ -6242,7 +6243,7 @@
     <row r="194" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A215" ca="1" si="3">RAND()</f>
-        <v>0.63071042958809276</v>
+        <v>9.7279825138971043E-2</v>
       </c>
       <c r="B194" s="2">
         <v>30</v>
@@ -6272,7 +6273,7 @@
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9847460541190447</v>
+        <v>0.82821813991254523</v>
       </c>
       <c r="B195" s="2">
         <v>91</v>
@@ -6296,7 +6297,7 @@
     <row r="196" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21193219509178463</v>
+        <v>1.0944103830016316E-2</v>
       </c>
       <c r="B196" s="2">
         <v>27</v>
@@ -6323,7 +6324,7 @@
     <row r="197" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4942689579060856</v>
+        <v>0.16567765880338992</v>
       </c>
       <c r="B197" s="2">
         <v>148</v>
@@ -6350,7 +6351,7 @@
     <row r="198" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62701359456086647</v>
+        <v>9.1915129245962568E-2</v>
       </c>
       <c r="B198" s="2">
         <v>110</v>
@@ -6377,7 +6378,7 @@
     <row r="199" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86677167313702608</v>
+        <v>0.33875137367747932</v>
       </c>
       <c r="B199" s="2">
         <v>130</v>
@@ -6401,7 +6402,7 @@
     <row r="200" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64417424104103593</v>
+        <v>0.8741542575311988</v>
       </c>
       <c r="B200" s="2">
         <v>114</v>
@@ -6425,7 +6426,7 @@
     <row r="201" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13525177628526219</v>
+        <v>4.7441841825180853E-2</v>
       </c>
       <c r="B201" s="2">
         <v>53</v>
@@ -6449,7 +6450,7 @@
     <row r="202" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45237612891572354</v>
+        <v>0.42459689055192185</v>
       </c>
       <c r="B202" s="2">
         <v>191</v>
@@ -6470,7 +6471,7 @@
     <row r="203" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48879671080404052</v>
+        <v>0.24328386135285396</v>
       </c>
       <c r="B203" s="2">
         <v>143</v>
@@ -6494,7 +6495,7 @@
     <row r="204" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48094496775971696</v>
+        <v>0.62032774924710332</v>
       </c>
       <c r="B204" s="2">
         <v>154</v>
@@ -6518,7 +6519,7 @@
     <row r="205" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91786804322703675</v>
+        <v>0.58945227500324848</v>
       </c>
       <c r="B205" s="2">
         <v>9</v>
@@ -6539,7 +6540,7 @@
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50751997728058229</v>
+        <v>0.25136793603929186</v>
       </c>
       <c r="B206" s="2">
         <v>163</v>
@@ -6560,7 +6561,7 @@
     <row r="207" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87158645199033635</v>
+        <v>2.7394601292797915E-2</v>
       </c>
       <c r="B207" s="2">
         <v>208</v>
@@ -6584,7 +6585,7 @@
     <row r="208" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94929369217691018</v>
+        <v>0.34541427913160605</v>
       </c>
       <c r="B208" s="2">
         <v>140</v>
@@ -6608,7 +6609,7 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21654499896559598</v>
+        <v>1.8205190469461341E-2</v>
       </c>
       <c r="B209" s="2">
         <v>67</v>
@@ -6632,7 +6633,7 @@
     <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39373557753899746</v>
+        <v>0.46182784823020051</v>
       </c>
       <c r="B210" s="2">
         <v>187</v>
@@ -6653,7 +6654,7 @@
     <row r="211" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22999488501527354</v>
+        <v>0.7008921420082258</v>
       </c>
       <c r="B211" s="2">
         <v>166</v>
@@ -6674,7 +6675,7 @@
     <row r="212" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90014469387801388</v>
+        <v>0.76127426963683964</v>
       </c>
       <c r="B212" s="2">
         <v>79</v>
@@ -6695,7 +6696,7 @@
     <row r="213" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21360836502229297</v>
+        <v>0.38436084512794289</v>
       </c>
       <c r="B213" s="2">
         <v>152</v>
@@ -6719,7 +6720,7 @@
     <row r="214" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30385135361305227</v>
+        <v>0.28680147084527141</v>
       </c>
       <c r="B214" s="2">
         <v>117</v>
@@ -6743,7 +6744,7 @@
     <row r="215" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37796371484785074</v>
+        <v>0.34635284135906785</v>
       </c>
       <c r="B215" s="2">
         <v>59</v>
@@ -6923,7 +6924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+    <sheetView topLeftCell="A201" workbookViewId="0">
       <selection activeCell="A296" sqref="A216:XFD296"/>
     </sheetView>
   </sheetViews>
